--- a/etc/templates/journal_learning/Sample.xlsx
+++ b/etc/templates/journal_learning/Sample.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="18000" windowHeight="8265"/>
@@ -138,13 +138,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor indexed="40"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AS314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U46" sqref="U46"/>
     </sheetView>
   </sheetViews>
@@ -10622,33 +10622,34 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AP12:AQ12"/>
-    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="AD12:AE12"/>
     <mergeCell ref="AF12:AG12"/>
     <mergeCell ref="AH12:AI12"/>
     <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AN12:AO12"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="Z11:AC11"/>
     <mergeCell ref="AL11:AO11"/>
     <mergeCell ref="AP11:AS11"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AP12:AQ12"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AN12:AO12"/>
   </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10661,6 +10662,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>